--- a/doc/테이블명세서.xlsx
+++ b/doc/테이블명세서.xlsx
@@ -1,24 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/충남대학교/doc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78F07A2-0E21-EE4E-A471-C9F39F48533D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16880" tabRatio="829" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16440" tabRatio="829" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="데이터베이스 명세서" sheetId="1" r:id="rId1"/>
     <sheet name="Entity 정의서" sheetId="2" r:id="rId2"/>
-    <sheet name="테이블  명세서" sheetId="3" r:id="rId3"/>
-    <sheet name="샘플 테이블  명세서" sheetId="4" r:id="rId4"/>
+    <sheet name="회원 테이블  명세서" sheetId="3" r:id="rId3"/>
+    <sheet name="게시판 테이블  명세서" sheetId="5" r:id="rId4"/>
+    <sheet name="파일정보 테이블  명세서" sheetId="6" r:id="rId5"/>
+    <sheet name="샘플 테이블  명세서" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="135">
   <si>
     <t>관리자권한여부</t>
   </si>
@@ -185,6 +181,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t>umber</t>
@@ -200,6 +197,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t>archar2</t>
@@ -215,6 +213,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t>ate</t>
@@ -230,6 +229,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t>har</t>
@@ -253,6 +253,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t>ysdate</t>
@@ -268,6 +269,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t>efault 'N'</t>
@@ -292,6 +294,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t>N','Y'</t>
@@ -315,6 +318,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t>ser_role</t>
@@ -334,6 +338,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t>ser_address</t>
@@ -357,6 +362,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t>ser_gender</t>
@@ -372,6 +378,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t>',여'</t>
@@ -392,19 +399,627 @@
   </si>
   <si>
     <t>CK</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>CK</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ennie</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlPing</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>92.168.0.131</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>cott</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>iger</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ember</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>oard</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ileInfo</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 테이블</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 테이블</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>첨부파일 정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 테이블</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>회원번호,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 이름, 아이디, 비밀번호, 이메일, 전화번호, 주소, 성별,생일, 노출여부</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>글번호,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 상위글번호, 작성자, 글제목, 글본문, 작성일, 수정일, 조회수, 노출여부</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>일련번호,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 글번호, 원이름, 저장이름, 저장경로, 파일크기, 다운로드횟수, 삭제여부</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 테이블</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.04.01</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>전은석</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jennie</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원번호</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원이름</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>생일</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>노출여부</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>mno</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ail</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>el</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ddr</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>en</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>irth</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>sShow</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>0 CHAR</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>5 CHAR</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>0 CHAR</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>3 CHAR</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>00 CHAR</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>0 CHAR</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y'</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>예</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ] 010-1111-1111</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>HECK IN('F', 'M')/F:여성, M:남성</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>예 ] 2022/04/01</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> CHECK IN('Y', 'N')/ Y: 노출, N:숨김</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입일</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>oindate</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ATE</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ysdate</t>
+    </r>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -495,12 +1110,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="나눔명조"/>
       <family val="3"/>
@@ -516,13 +1125,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.14999847407452621"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
       <name val="맑은 고딕"/>
@@ -563,7 +1165,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -1236,7 +1853,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1246,9 +1863,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1264,30 +1878,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1312,31 +1905,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1348,7 +1938,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1381,7 +1971,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1399,117 +1989,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1517,21 +1996,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1549,115 +2013,283 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="8" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="8" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="8" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="8" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1721,7 +2353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="20000000000000000000"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1756,7 +2388,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="20000000000000000000"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1964,228 +2596,254 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C2:E33"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:5" s="1" customFormat="1" ht="48.75" customHeight="1">
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
     </row>
     <row r="3" spans="3:5" s="1" customFormat="1"/>
     <row r="4" spans="3:5">
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="9"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="115" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="3:5">
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="10"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="116" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="115" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="121">
+        <v>1521</v>
+      </c>
     </row>
     <row r="9" spans="3:5" s="1" customFormat="1">
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="12"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="122" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="10" spans="3:5" s="1" customFormat="1">
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="12"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="122" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="11" spans="3:5">
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="116" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="14">
+      <c r="C14" s="8">
         <v>1</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
+      <c r="D14" s="117" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="119" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="15" spans="3:5">
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>2</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="120" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="16" spans="3:5">
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>3</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="118" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="120" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>4</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="6"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>5</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="6"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>6</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="6"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>7</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="6"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>8</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="6"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>9</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="6"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>10</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="6"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="3:5">
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>11</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="6"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="3:5">
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>12</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="6"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="3:5">
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>13</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="6"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="3:5">
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>14</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="6"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="3:5">
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>15</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="6"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="3:5">
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>16</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="6"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="3:5">
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>17</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="6"/>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="3:5">
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>18</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="6"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="3:5">
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>19</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="6"/>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="3:5">
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>20</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="4"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2205,143 +2863,155 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5" customWidth="1"/>
+    <col min="4" max="4" width="72.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="36" customHeight="1">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
-    </row>
-    <row r="4" spans="2:4" s="23" customFormat="1" ht="26" customHeight="1">
-      <c r="B4" s="20" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="70"/>
+    </row>
+    <row r="4" spans="2:4" s="15" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="24">
+      <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="124" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="6"/>
+      <c r="C6" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="120" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="120" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="6"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="6"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="6"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="6"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="6"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>13</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="6"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>14</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="6"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>15</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="4"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2354,489 +3024,2325 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFC0504D"/>
   </sheetPr>
   <dimension ref="B2:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="15.6640625" style="1" customWidth="1"/>
-    <col min="6" max="10" width="7.6640625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="10" width="7.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="1"/>
     <col min="15" max="15" width="27" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="1"/>
+    <col min="16" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="125" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="127"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="112"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="128" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="130"/>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="134" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="131" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="134"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="117"/>
-    </row>
-    <row r="5" spans="2:15" ht="23" thickBot="1">
-      <c r="B5" s="127" t="s">
+      <c r="K4" s="77"/>
+      <c r="L4" s="134" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="135"/>
+    </row>
+    <row r="5" spans="2:15" ht="24.75" thickBot="1">
+      <c r="B5" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="129"/>
-    </row>
-    <row r="6" spans="2:15" ht="18" thickBot="1">
-      <c r="B6" s="104" t="s">
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="80"/>
+    </row>
+    <row r="6" spans="2:15" ht="17.25" thickBot="1">
+      <c r="B6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="105" t="s">
+      <c r="D6" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="105" t="s">
+      <c r="E6" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="105" t="s">
+      <c r="F6" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="105" t="s">
+      <c r="G6" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="105" t="s">
+      <c r="H6" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="105" t="s">
+      <c r="I6" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="105" t="s">
+      <c r="J6" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="105" t="s">
+      <c r="K6" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="L6" s="105" t="s">
+      <c r="L6" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="106" t="s">
+      <c r="M6" s="55" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="124">
+      <c r="B7" s="56">
         <v>1</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="46"/>
+      <c r="C7" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="23">
+        <v>4</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="37"/>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="125">
+      <c r="B8" s="57">
         <v>2</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="34"/>
+      <c r="C8" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="142" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="25"/>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="125">
+      <c r="B9" s="57">
         <v>3</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="34"/>
+      <c r="C9" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="142" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="25"/>
     </row>
     <row r="10" spans="2:15">
-      <c r="B10" s="125">
+      <c r="B10" s="57">
         <v>4</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="34"/>
-      <c r="O10" s="40"/>
+      <c r="C10" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="142" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="25"/>
+      <c r="O10" s="31"/>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="125">
+      <c r="B11" s="57">
         <v>5</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="34"/>
+      <c r="C11" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="142" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="25"/>
     </row>
     <row r="12" spans="2:15">
-      <c r="B12" s="125">
+      <c r="B12" s="57">
         <v>6</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="34"/>
+      <c r="C12" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="142" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" s="26"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="51" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="125">
+      <c r="B13" s="57">
         <v>7</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="100"/>
+      <c r="C13" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="142" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="49"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="125">
+      <c r="B14" s="57">
         <v>8</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="34"/>
+      <c r="C14" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="24">
+        <v>1</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" s="35"/>
+      <c r="M14" s="51" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="15" spans="2:15">
-      <c r="B15" s="125">
+      <c r="B15" s="57">
         <v>9</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="101"/>
+      <c r="C15" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="143" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" s="42"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="145" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="16" spans="2:15">
-      <c r="B16" s="125">
+      <c r="B16" s="57">
         <v>10</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="101"/>
+      <c r="C16" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="K16" s="42"/>
+      <c r="L16" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="M16" s="50"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="125">
+      <c r="B17" s="57">
         <v>11</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="102"/>
+      <c r="C17" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="39">
+        <v>1</v>
+      </c>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="L17" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="M17" s="145" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="125">
+      <c r="B18" s="57">
         <v>12</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="102"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="51"/>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="125">
+      <c r="B19" s="57">
         <v>13</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="34"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="25"/>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="125">
+      <c r="B20" s="57">
         <v>14</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="34"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="25"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="125">
+      <c r="B21" s="57">
         <v>15</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="34"/>
-      <c r="P21" s="27"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="25"/>
+      <c r="P21" s="18"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="125">
+      <c r="B22" s="57">
         <v>16</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="34"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="25"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="125">
+      <c r="B23" s="57">
         <v>17</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="103"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="52"/>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="125">
+      <c r="B24" s="57">
         <v>18</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="103"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="52"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="125">
+      <c r="B25" s="57">
         <v>19</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="34"/>
-    </row>
-    <row r="26" spans="2:16" ht="18" thickBot="1">
-      <c r="B26" s="126">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="25"/>
+    </row>
+    <row r="26" spans="2:16" ht="17.25" thickBot="1">
+      <c r="B26" s="58">
         <v>20</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="39"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="30"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="130" t="s">
+      <c r="B27" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="131"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="136"/>
-      <c r="H27" s="136"/>
-      <c r="I27" s="136"/>
-      <c r="J27" s="136"/>
-      <c r="K27" s="136"/>
-      <c r="L27" s="136"/>
-      <c r="M27" s="137"/>
-    </row>
-    <row r="28" spans="2:16" ht="18" thickBot="1">
-      <c r="B28" s="132" t="s">
+      <c r="C27" s="82"/>
+      <c r="D27" s="136" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="137"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="138"/>
+    </row>
+    <row r="28" spans="2:16" ht="17.25" thickBot="1">
+      <c r="B28" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="133"/>
-      <c r="D28" s="138"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="139"/>
-      <c r="K28" s="139"/>
-      <c r="L28" s="139"/>
-      <c r="M28" s="140"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="139" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="140"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="141"/>
     </row>
     <row r="34" spans="5:5">
       <c r="E34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFC0504D"/>
+  </sheetPr>
+  <dimension ref="B1:P28"/>
+  <sheetViews>
+    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="10" width="7.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="1"/>
+    <col min="15" max="15" width="27" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:15">
+      <c r="B2" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="127"/>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="130"/>
+    </row>
+    <row r="4" spans="2:15" ht="17.25" thickBot="1">
+      <c r="B4" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="131" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="77"/>
+      <c r="L4" s="134" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="135"/>
+    </row>
+    <row r="5" spans="2:15" ht="24.75" thickBot="1">
+      <c r="B5" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="80"/>
+    </row>
+    <row r="6" spans="2:15" ht="17.25" thickBot="1">
+      <c r="B6" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="144" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="144" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="144" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="144" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="56">
+        <v>1</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="37"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="57">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="25"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="57">
+        <v>3</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="25"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="57">
+        <v>4</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="25"/>
+      <c r="O10" s="31"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="57">
+        <v>5</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="25"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="57">
+        <v>6</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="51"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="57">
+        <v>7</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="49"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="57">
+        <v>8</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="51"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="57">
+        <v>9</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="145"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="57">
+        <v>10</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="50"/>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="57">
+        <v>11</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="145"/>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="57">
+        <v>12</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="51"/>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="57">
+        <v>13</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="25"/>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="57">
+        <v>14</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="25"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="57">
+        <v>15</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="25"/>
+      <c r="P21" s="18"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="57">
+        <v>16</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="25"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="57">
+        <v>17</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="52"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="57">
+        <v>18</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="52"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="57">
+        <v>19</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="25"/>
+    </row>
+    <row r="26" spans="2:16" ht="17.25" thickBot="1">
+      <c r="B26" s="58">
+        <v>20</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="30"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="82"/>
+      <c r="D27" s="136" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="137"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="138"/>
+    </row>
+    <row r="28" spans="2:16" ht="17.25" thickBot="1">
+      <c r="B28" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="84"/>
+      <c r="D28" s="139" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="140"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="141"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFC0504D"/>
+  </sheetPr>
+  <dimension ref="B1:P28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="10" width="7.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="1"/>
+    <col min="15" max="15" width="27" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:15">
+      <c r="B2" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="127"/>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="130"/>
+    </row>
+    <row r="4" spans="2:15" ht="17.25" thickBot="1">
+      <c r="B4" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="131" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="77"/>
+      <c r="L4" s="134" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="135"/>
+    </row>
+    <row r="5" spans="2:15" ht="24.75" thickBot="1">
+      <c r="B5" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="80"/>
+    </row>
+    <row r="6" spans="2:15" ht="17.25" thickBot="1">
+      <c r="B6" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="144" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="144" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="144" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="144" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="56">
+        <v>1</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="37"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="57">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="25"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="57">
+        <v>3</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="25"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="57">
+        <v>4</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="25"/>
+      <c r="O10" s="31"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="57">
+        <v>5</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="25"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="57">
+        <v>6</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="51"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="57">
+        <v>7</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="49"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="57">
+        <v>8</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="51"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="57">
+        <v>9</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="145"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="57">
+        <v>10</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="50"/>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="57">
+        <v>11</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="145"/>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="57">
+        <v>12</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="51"/>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="57">
+        <v>13</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="25"/>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="57">
+        <v>14</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="25"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="57">
+        <v>15</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="25"/>
+      <c r="P21" s="18"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="57">
+        <v>16</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="25"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="57">
+        <v>17</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="52"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="57">
+        <v>18</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="52"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="57">
+        <v>19</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="25"/>
+    </row>
+    <row r="26" spans="2:16" ht="17.25" thickBot="1">
+      <c r="B26" s="58">
+        <v>20</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="30"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="82"/>
+      <c r="D27" s="136" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="137"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="138"/>
+    </row>
+    <row r="28" spans="2:16" ht="17.25" thickBot="1">
+      <c r="B28" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="84"/>
+      <c r="D28" s="139" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="140"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="141"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFC0504D"/>
+  </sheetPr>
+  <dimension ref="B1:P28"/>
+  <sheetViews>
+    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="10" width="7.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="1"/>
+    <col min="15" max="15" width="27" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:15">
+      <c r="B2" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="104"/>
+      <c r="D3" s="105" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="107"/>
+    </row>
+    <row r="4" spans="2:15" ht="17.25" thickBot="1">
+      <c r="B4" s="108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="109"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="109"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="114"/>
+    </row>
+    <row r="5" spans="2:15" ht="24.75" thickBot="1">
+      <c r="B5" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="87"/>
+    </row>
+    <row r="6" spans="2:15" ht="17.25" thickBot="1">
+      <c r="B6" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="19">
+        <v>1</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="23">
+        <v>5</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="20">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="24">
+        <v>10</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="25"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="20">
+        <v>3</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="24">
+        <v>20</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="25"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="20">
+        <v>4</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="24">
+        <v>15</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="25"/>
+      <c r="O10" s="31"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="20">
+        <v>5</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="25"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="20">
+        <v>6</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="24">
+        <v>11</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="26"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="25"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="20">
+        <v>7</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="24">
+        <v>50</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="49"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="20">
+        <v>8</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" s="25"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="20">
+        <v>9</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="39">
+        <v>300</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="42"/>
+      <c r="L15" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="50"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="20">
+        <v>10</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="39">
+        <v>1</v>
+      </c>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" s="42"/>
+      <c r="M16" s="50"/>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="20">
+        <v>11</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="24">
+        <v>1</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="20">
+        <v>12</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="24">
+        <v>1</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="20">
+        <v>13</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="25"/>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="20">
+        <v>14</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="25"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="20">
+        <v>15</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="25"/>
+      <c r="P21" s="18"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="20">
+        <v>16</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="25"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="20">
+        <v>17</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="52"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="20">
+        <v>18</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="52"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="20">
+        <v>19</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="25"/>
+    </row>
+    <row r="26" spans="2:16" ht="17.25" thickBot="1">
+      <c r="B26" s="21">
+        <v>20</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="30"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="89"/>
+      <c r="D27" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="92"/>
+    </row>
+    <row r="28" spans="2:16" ht="17.25" thickBot="1">
+      <c r="B28" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="94"/>
+      <c r="D28" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2854,666 +5360,7 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:M28"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B340A10-4685-0746-80AF-2A07E7C25663}">
-  <sheetPr>
-    <tabColor rgb="FFC0504D"/>
-  </sheetPr>
-  <dimension ref="B1:P28"/>
-  <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="15.6640625" style="1" customWidth="1"/>
-    <col min="6" max="10" width="7.6640625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="1"/>
-    <col min="15" max="15" width="27" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:15" ht="18" thickBot="1"/>
-    <row r="2" spans="2:15">
-      <c r="B2" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="71"/>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-    </row>
-    <row r="4" spans="2:15" ht="18" thickBot="1">
-      <c r="B4" s="84" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="85"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="90"/>
-    </row>
-    <row r="5" spans="2:15" ht="23" thickBot="1">
-      <c r="B5" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="68"/>
-    </row>
-    <row r="6" spans="2:15" ht="18" thickBot="1">
-      <c r="B6" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="91" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="91" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="L6" s="91" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="92" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="28">
-        <v>1</v>
-      </c>
-      <c r="C7" s="99" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="99" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="32">
-        <v>5</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="29">
-        <v>2</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="33">
-        <v>10</v>
-      </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="34"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="29">
-        <v>3</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="33">
-        <v>20</v>
-      </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="34"/>
-    </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="29">
-        <v>4</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="33">
-        <v>15</v>
-      </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="34"/>
-      <c r="O10" s="40"/>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="29">
-        <v>5</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="35"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="34"/>
-    </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="29">
-        <v>6</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="33">
-        <v>11</v>
-      </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="35"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="34"/>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="29">
-        <v>7</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="33">
-        <v>50</v>
-      </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="100"/>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="29">
-        <v>8</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="26"/>
-      <c r="L14" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="29">
-        <v>9</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="48">
-        <v>300</v>
-      </c>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" s="51"/>
-      <c r="L15" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15" s="101"/>
-    </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="29">
-        <v>10</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="48">
-        <v>1</v>
-      </c>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" s="51"/>
-      <c r="M16" s="101"/>
-    </row>
-    <row r="17" spans="2:16">
-      <c r="B17" s="29">
-        <v>11</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="33">
-        <v>1</v>
-      </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="L17" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="M17" s="102" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16">
-      <c r="B18" s="29">
-        <v>12</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="33">
-        <v>1</v>
-      </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="L18" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="M18" s="102" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16">
-      <c r="B19" s="29">
-        <v>13</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="34"/>
-    </row>
-    <row r="20" spans="2:16">
-      <c r="B20" s="29">
-        <v>14</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="34"/>
-    </row>
-    <row r="21" spans="2:16">
-      <c r="B21" s="29">
-        <v>15</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="34"/>
-      <c r="P21" s="27"/>
-    </row>
-    <row r="22" spans="2:16">
-      <c r="B22" s="29">
-        <v>16</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="34"/>
-    </row>
-    <row r="23" spans="2:16">
-      <c r="B23" s="29">
-        <v>17</v>
-      </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="103"/>
-    </row>
-    <row r="24" spans="2:16">
-      <c r="B24" s="29">
-        <v>18</v>
-      </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="103"/>
-    </row>
-    <row r="25" spans="2:16">
-      <c r="B25" s="29">
-        <v>19</v>
-      </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="34"/>
-    </row>
-    <row r="26" spans="2:16" ht="18" thickBot="1">
-      <c r="B26" s="30">
-        <v>20</v>
-      </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="39"/>
-    </row>
-    <row r="27" spans="2:16">
-      <c r="B27" s="94" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="95"/>
-      <c r="D27" s="96" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="98"/>
-    </row>
-    <row r="28" spans="2:16" ht="18" thickBot="1">
-      <c r="B28" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="76"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:M2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-  </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
